--- a/data-raw/dadoscpfl.xlsx
+++ b/data-raw/dadoscpfl.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arpan\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a61b52e7261446ee/AA TOTONHO TRABALHO/HIDRELÉTRICAS/CPFL incorporação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E97C61-D8D1-4107-8964-F4710D904947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{D665FB8D-F563-4CD1-8B90-C887F7EE3771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDAC0C4-82D4-404D-B57D-0AF38C92DEB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{49060A0B-62BF-4EE6-B69F-8F435598AA6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{49060A0B-62BF-4EE6-B69F-8F435598AA6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Composição química macrófitas" sheetId="1" r:id="rId1"/>
-    <sheet name="Incorporaçaõ macrófitas no solo" sheetId="2" r:id="rId2"/>
-    <sheet name="Projeto" sheetId="3" r:id="rId3"/>
+    <sheet name="Crescmento braquiária" sheetId="4" r:id="rId2"/>
+    <sheet name="Incorporaçaõ macrófitas no solo" sheetId="2" r:id="rId3"/>
+    <sheet name="Projeto" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="51">
   <si>
     <t>Amostra</t>
   </si>
@@ -155,6 +156,42 @@
   </si>
   <si>
     <t xml:space="preserve">Segunda fase: foi realizado um experimento de vaso incorporando tres doses de cada espécie e um testemunha, incubado por 42 dias e, depois, analisado para macro e micronutrientes. </t>
+  </si>
+  <si>
+    <t>Altura</t>
+  </si>
+  <si>
+    <t>P. aérea</t>
+  </si>
+  <si>
+    <t>Raiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTE </t>
+  </si>
+  <si>
+    <t>10 t/ha</t>
+  </si>
+  <si>
+    <t>20/ t/ha</t>
+  </si>
+  <si>
+    <t>20 t/ha</t>
+  </si>
+  <si>
+    <t>22 t/ha</t>
+  </si>
+  <si>
+    <t>05 t/ha</t>
+  </si>
+  <si>
+    <t>Perfilho</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Espécie</t>
   </si>
 </sst>
 </file>
@@ -295,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -371,6 +408,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,6 +443,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,33 +768,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591271F4-E98E-471E-81E6-ADD714D6BD01}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B17" sqref="B13:B17"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="3"/>
+    <col min="1" max="16384" width="9.23046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="33" t="s">
+    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -800,7 +845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43132</v>
       </c>
@@ -853,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43132</v>
       </c>
@@ -906,7 +951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43132</v>
       </c>
@@ -959,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43132</v>
       </c>
@@ -1012,7 +1057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43132</v>
       </c>
@@ -1065,7 +1110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43132</v>
       </c>
@@ -1118,7 +1163,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43132</v>
       </c>
@@ -1171,7 +1216,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43132</v>
       </c>
@@ -1224,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43132</v>
       </c>
@@ -1277,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43132</v>
       </c>
@@ -1330,7 +1375,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43132</v>
       </c>
@@ -1383,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43132</v>
       </c>
@@ -1436,7 +1481,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>43132</v>
       </c>
@@ -1489,7 +1534,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43132</v>
       </c>
@@ -1542,7 +1587,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>43132</v>
       </c>
@@ -1595,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43252</v>
       </c>
@@ -1648,7 +1693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43252</v>
       </c>
@@ -1701,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43252</v>
       </c>
@@ -1754,7 +1799,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43252</v>
       </c>
@@ -1807,7 +1852,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43252</v>
       </c>
@@ -1860,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>43252</v>
       </c>
@@ -1913,7 +1958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>43252</v>
       </c>
@@ -1966,7 +2011,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>43252</v>
       </c>
@@ -2019,7 +2064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43252</v>
       </c>
@@ -2072,7 +2117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43252</v>
       </c>
@@ -2125,7 +2170,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43252</v>
       </c>
@@ -2178,7 +2223,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43252</v>
       </c>
@@ -2231,7 +2276,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43252</v>
       </c>
@@ -2284,7 +2329,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>43252</v>
       </c>
@@ -2337,7 +2382,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43252</v>
       </c>
@@ -2390,7 +2435,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43252</v>
       </c>
@@ -2443,7 +2488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43252</v>
       </c>
@@ -2496,7 +2541,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43252</v>
       </c>
@@ -2549,7 +2594,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43252</v>
       </c>
@@ -2602,7 +2647,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>43252</v>
       </c>
@@ -2667,6 +2712,973 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C4B281-7CCE-4DF9-9F04-7DA15B43C9D7}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="9.23046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E2" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F2" s="33">
+        <v>4.01</v>
+      </c>
+      <c r="G2" s="33">
+        <v>1.33</v>
+      </c>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34">
+        <v>2</v>
+      </c>
+      <c r="D3" s="33">
+        <v>35</v>
+      </c>
+      <c r="E3" s="33">
+        <v>3.53</v>
+      </c>
+      <c r="F3" s="33">
+        <v>3.57</v>
+      </c>
+      <c r="G3" s="33">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33">
+        <v>32.9</v>
+      </c>
+      <c r="E4" s="33">
+        <v>3.61</v>
+      </c>
+      <c r="F4" s="33">
+        <v>3.42</v>
+      </c>
+      <c r="G4" s="33">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34">
+        <v>4</v>
+      </c>
+      <c r="D5" s="33">
+        <v>36.5</v>
+      </c>
+      <c r="E5" s="33">
+        <v>3.9600000000000009</v>
+      </c>
+      <c r="F5" s="33">
+        <v>3.5199999999999996</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E6" s="33">
+        <v>4.12</v>
+      </c>
+      <c r="F6" s="33">
+        <v>2.11</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.98</v>
+      </c>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33">
+        <v>37.9</v>
+      </c>
+      <c r="E7" s="33">
+        <v>5.6</v>
+      </c>
+      <c r="F7" s="33">
+        <v>3.12</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="34">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33">
+        <v>41.2</v>
+      </c>
+      <c r="E8" s="33">
+        <v>3.35</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2.14</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="34">
+        <v>4</v>
+      </c>
+      <c r="D9" s="33">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E9" s="33">
+        <v>4.5300000000000029</v>
+      </c>
+      <c r="F9" s="33">
+        <v>3.7259999999999991</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.95823999999999954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33">
+        <v>39.6</v>
+      </c>
+      <c r="E10" s="33">
+        <v>6.92</v>
+      </c>
+      <c r="F10" s="33">
+        <v>3.99</v>
+      </c>
+      <c r="G10" s="33">
+        <v>1.28</v>
+      </c>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2</v>
+      </c>
+      <c r="D11" s="33">
+        <v>35</v>
+      </c>
+      <c r="E11" s="33">
+        <v>6.3</v>
+      </c>
+      <c r="F11" s="33">
+        <v>3.98</v>
+      </c>
+      <c r="G11" s="33">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3</v>
+      </c>
+      <c r="D12" s="33">
+        <v>36.1</v>
+      </c>
+      <c r="E12" s="33">
+        <v>7.4</v>
+      </c>
+      <c r="F12" s="33">
+        <v>4.21</v>
+      </c>
+      <c r="G12" s="33">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="34">
+        <v>4</v>
+      </c>
+      <c r="D13" s="33">
+        <v>38.5</v>
+      </c>
+      <c r="E13" s="33">
+        <v>7.0440000000000005</v>
+      </c>
+      <c r="F13" s="33">
+        <v>3.8852800000000016</v>
+      </c>
+      <c r="G13" s="33">
+        <v>1.1134399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <v>43.3</v>
+      </c>
+      <c r="E14" s="33">
+        <v>8.1</v>
+      </c>
+      <c r="F14" s="33">
+        <v>4.03</v>
+      </c>
+      <c r="G14" s="33">
+        <v>1.03</v>
+      </c>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="34">
+        <v>2</v>
+      </c>
+      <c r="D15" s="33">
+        <v>40.5</v>
+      </c>
+      <c r="E15" s="33">
+        <v>7.1</v>
+      </c>
+      <c r="F15" s="33">
+        <v>6.65</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="34">
+        <v>3</v>
+      </c>
+      <c r="D16" s="33">
+        <v>45</v>
+      </c>
+      <c r="E16" s="33">
+        <v>6.99</v>
+      </c>
+      <c r="F16" s="33">
+        <v>4.99</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="34">
+        <v>4</v>
+      </c>
+      <c r="D17" s="33">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E17" s="33">
+        <v>6.9300000000000033</v>
+      </c>
+      <c r="F17" s="33">
+        <v>4.5814399999999988</v>
+      </c>
+      <c r="G17" s="33">
+        <v>1.3040799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
+        <v>41.8</v>
+      </c>
+      <c r="E18" s="33">
+        <v>9</v>
+      </c>
+      <c r="F18" s="33">
+        <v>5.23</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1.77</v>
+      </c>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2</v>
+      </c>
+      <c r="D19" s="33">
+        <v>39.6</v>
+      </c>
+      <c r="E19" s="33">
+        <v>7.3</v>
+      </c>
+      <c r="F19" s="33">
+        <v>6.1</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="34">
+        <v>3</v>
+      </c>
+      <c r="D20" s="33">
+        <v>44.7</v>
+      </c>
+      <c r="E20" s="33">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F20" s="33">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G20" s="33">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="34">
+        <v>4</v>
+      </c>
+      <c r="D21" s="33">
+        <v>42.8</v>
+      </c>
+      <c r="E21" s="33">
+        <v>9.8519999999999968</v>
+      </c>
+      <c r="F21" s="33">
+        <v>4.6744000000000021</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1.5225600000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="33">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E22" s="33">
+        <v>8.99</v>
+      </c>
+      <c r="F22" s="33">
+        <v>7.96</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1.91</v>
+      </c>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2</v>
+      </c>
+      <c r="D23" s="33">
+        <v>33.4</v>
+      </c>
+      <c r="E23" s="33">
+        <v>9.77</v>
+      </c>
+      <c r="F23" s="33">
+        <v>7.88</v>
+      </c>
+      <c r="G23" s="33">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="34">
+        <v>3</v>
+      </c>
+      <c r="D24" s="33">
+        <v>37.1</v>
+      </c>
+      <c r="E24" s="33">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F24" s="33">
+        <v>9.15</v>
+      </c>
+      <c r="G24" s="33">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="34">
+        <v>4</v>
+      </c>
+      <c r="D25" s="33">
+        <v>42.6</v>
+      </c>
+      <c r="E25" s="33">
+        <v>9.4759999999999991</v>
+      </c>
+      <c r="F25" s="33">
+        <v>8.3708000000000027</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1.5024800000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="34">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
+        <v>43.3</v>
+      </c>
+      <c r="E26" s="33">
+        <v>9.98</v>
+      </c>
+      <c r="F26" s="33">
+        <v>13</v>
+      </c>
+      <c r="G26" s="33">
+        <v>1.45</v>
+      </c>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="34">
+        <v>2</v>
+      </c>
+      <c r="D27" s="33">
+        <v>47.7</v>
+      </c>
+      <c r="E27" s="33">
+        <v>11.98</v>
+      </c>
+      <c r="F27" s="33">
+        <v>8.98</v>
+      </c>
+      <c r="G27" s="33">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="34">
+        <v>3</v>
+      </c>
+      <c r="D28" s="33">
+        <v>46.2</v>
+      </c>
+      <c r="E28" s="33">
+        <v>9.81</v>
+      </c>
+      <c r="F28" s="33">
+        <v>11</v>
+      </c>
+      <c r="G28" s="33">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="34">
+        <v>4</v>
+      </c>
+      <c r="D29" s="33">
+        <v>44.7</v>
+      </c>
+      <c r="E29" s="33">
+        <v>10.565999999999995</v>
+      </c>
+      <c r="F29" s="33">
+        <v>9.8926400000000001</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1.6856000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="34">
+        <v>1</v>
+      </c>
+      <c r="D30" s="33">
+        <v>45.9</v>
+      </c>
+      <c r="E30" s="33">
+        <v>6.94</v>
+      </c>
+      <c r="F30" s="33">
+        <v>7.03</v>
+      </c>
+      <c r="G30" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2</v>
+      </c>
+      <c r="D31" s="33">
+        <v>44.5</v>
+      </c>
+      <c r="E31" s="33">
+        <v>7.41</v>
+      </c>
+      <c r="F31" s="33">
+        <v>5.79</v>
+      </c>
+      <c r="G31" s="33">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="34">
+        <v>3</v>
+      </c>
+      <c r="D32" s="33">
+        <v>52.3</v>
+      </c>
+      <c r="E32" s="33">
+        <v>6.66</v>
+      </c>
+      <c r="F32" s="33">
+        <v>6.23</v>
+      </c>
+      <c r="G32" s="33">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="34">
+        <v>4</v>
+      </c>
+      <c r="D33" s="33">
+        <v>42.7</v>
+      </c>
+      <c r="E33" s="33">
+        <v>7.4060000000000024</v>
+      </c>
+      <c r="F33" s="33">
+        <v>5.9495199999999961</v>
+      </c>
+      <c r="G33" s="33">
+        <v>1.7875999999999985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="33">
+        <v>52</v>
+      </c>
+      <c r="E34" s="33">
+        <v>11.02</v>
+      </c>
+      <c r="F34" s="33">
+        <v>8.98</v>
+      </c>
+      <c r="G34" s="33">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="34">
+        <v>2</v>
+      </c>
+      <c r="D35" s="33">
+        <v>48.3</v>
+      </c>
+      <c r="E35" s="33">
+        <v>8.85</v>
+      </c>
+      <c r="F35" s="33">
+        <v>7.98</v>
+      </c>
+      <c r="G35" s="33">
+        <v>1.47</v>
+      </c>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="34">
+        <v>3</v>
+      </c>
+      <c r="D36" s="33">
+        <v>47.8</v>
+      </c>
+      <c r="E36" s="33">
+        <v>9.57</v>
+      </c>
+      <c r="F36" s="33">
+        <v>8.01</v>
+      </c>
+      <c r="G36" s="33">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="34">
+        <v>4</v>
+      </c>
+      <c r="D37" s="33">
+        <v>50.1</v>
+      </c>
+      <c r="E37" s="33">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F37" s="33">
+        <v>7.4921599999999984</v>
+      </c>
+      <c r="G37" s="33">
+        <v>1.928799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="34">
+        <v>1</v>
+      </c>
+      <c r="D38" s="33">
+        <v>56</v>
+      </c>
+      <c r="E38" s="33">
+        <v>11.83</v>
+      </c>
+      <c r="F38" s="33">
+        <v>9</v>
+      </c>
+      <c r="G38" s="33">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="34">
+        <v>2</v>
+      </c>
+      <c r="D39" s="33">
+        <v>55.4</v>
+      </c>
+      <c r="E39" s="33">
+        <v>13.41</v>
+      </c>
+      <c r="F39" s="33">
+        <v>7.78</v>
+      </c>
+      <c r="G39" s="33">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="34">
+        <v>3</v>
+      </c>
+      <c r="D40" s="33">
+        <v>48.9</v>
+      </c>
+      <c r="E40" s="33">
+        <v>12.08</v>
+      </c>
+      <c r="F40" s="33">
+        <v>8.9</v>
+      </c>
+      <c r="G40" s="33">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="34">
+        <v>4</v>
+      </c>
+      <c r="D41" s="33">
+        <v>56.7</v>
+      </c>
+      <c r="E41" s="33">
+        <v>12.047999999999995</v>
+      </c>
+      <c r="F41" s="33">
+        <v>8.1012800000000027</v>
+      </c>
+      <c r="G41" s="33">
+        <v>1.2094400000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G41">
+    <sortCondition ref="A6:A41"/>
+    <sortCondition ref="B6:B41"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1885F8-2F2E-49F4-83AE-FDFEDBECDBCF}">
   <dimension ref="A1:X52"/>
   <sheetViews>
@@ -2674,170 +3686,170 @@
       <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="7.33203125" style="1" customWidth="1"/>
-    <col min="26" max="256" width="9.21875" style="1"/>
-    <col min="257" max="281" width="7.33203125" style="1" customWidth="1"/>
-    <col min="282" max="512" width="9.21875" style="1"/>
-    <col min="513" max="537" width="7.33203125" style="1" customWidth="1"/>
-    <col min="538" max="768" width="9.21875" style="1"/>
-    <col min="769" max="793" width="7.33203125" style="1" customWidth="1"/>
-    <col min="794" max="1024" width="9.21875" style="1"/>
-    <col min="1025" max="1049" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1050" max="1280" width="9.21875" style="1"/>
-    <col min="1281" max="1305" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1306" max="1536" width="9.21875" style="1"/>
-    <col min="1537" max="1561" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1562" max="1792" width="9.21875" style="1"/>
-    <col min="1793" max="1817" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1818" max="2048" width="9.21875" style="1"/>
-    <col min="2049" max="2073" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2074" max="2304" width="9.21875" style="1"/>
-    <col min="2305" max="2329" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2330" max="2560" width="9.21875" style="1"/>
-    <col min="2561" max="2585" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2586" max="2816" width="9.21875" style="1"/>
-    <col min="2817" max="2841" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2842" max="3072" width="9.21875" style="1"/>
-    <col min="3073" max="3097" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3098" max="3328" width="9.21875" style="1"/>
-    <col min="3329" max="3353" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3354" max="3584" width="9.21875" style="1"/>
-    <col min="3585" max="3609" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3610" max="3840" width="9.21875" style="1"/>
-    <col min="3841" max="3865" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3866" max="4096" width="9.21875" style="1"/>
-    <col min="4097" max="4121" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4122" max="4352" width="9.21875" style="1"/>
-    <col min="4353" max="4377" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4378" max="4608" width="9.21875" style="1"/>
-    <col min="4609" max="4633" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4634" max="4864" width="9.21875" style="1"/>
-    <col min="4865" max="4889" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4890" max="5120" width="9.21875" style="1"/>
-    <col min="5121" max="5145" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5146" max="5376" width="9.21875" style="1"/>
-    <col min="5377" max="5401" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5402" max="5632" width="9.21875" style="1"/>
-    <col min="5633" max="5657" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5658" max="5888" width="9.21875" style="1"/>
-    <col min="5889" max="5913" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5914" max="6144" width="9.21875" style="1"/>
-    <col min="6145" max="6169" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6170" max="6400" width="9.21875" style="1"/>
-    <col min="6401" max="6425" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6426" max="6656" width="9.21875" style="1"/>
-    <col min="6657" max="6681" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6682" max="6912" width="9.21875" style="1"/>
-    <col min="6913" max="6937" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6938" max="7168" width="9.21875" style="1"/>
-    <col min="7169" max="7193" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7194" max="7424" width="9.21875" style="1"/>
-    <col min="7425" max="7449" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7450" max="7680" width="9.21875" style="1"/>
-    <col min="7681" max="7705" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7706" max="7936" width="9.21875" style="1"/>
-    <col min="7937" max="7961" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7962" max="8192" width="9.21875" style="1"/>
-    <col min="8193" max="8217" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8218" max="8448" width="9.21875" style="1"/>
-    <col min="8449" max="8473" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8474" max="8704" width="9.21875" style="1"/>
-    <col min="8705" max="8729" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8730" max="8960" width="9.21875" style="1"/>
-    <col min="8961" max="8985" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8986" max="9216" width="9.21875" style="1"/>
-    <col min="9217" max="9241" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9242" max="9472" width="9.21875" style="1"/>
-    <col min="9473" max="9497" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9498" max="9728" width="9.21875" style="1"/>
-    <col min="9729" max="9753" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9754" max="9984" width="9.21875" style="1"/>
-    <col min="9985" max="10009" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10010" max="10240" width="9.21875" style="1"/>
-    <col min="10241" max="10265" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10266" max="10496" width="9.21875" style="1"/>
-    <col min="10497" max="10521" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10522" max="10752" width="9.21875" style="1"/>
-    <col min="10753" max="10777" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10778" max="11008" width="9.21875" style="1"/>
-    <col min="11009" max="11033" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11034" max="11264" width="9.21875" style="1"/>
-    <col min="11265" max="11289" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11290" max="11520" width="9.21875" style="1"/>
-    <col min="11521" max="11545" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11546" max="11776" width="9.21875" style="1"/>
-    <col min="11777" max="11801" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11802" max="12032" width="9.21875" style="1"/>
-    <col min="12033" max="12057" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12058" max="12288" width="9.21875" style="1"/>
-    <col min="12289" max="12313" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12314" max="12544" width="9.21875" style="1"/>
-    <col min="12545" max="12569" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12570" max="12800" width="9.21875" style="1"/>
-    <col min="12801" max="12825" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12826" max="13056" width="9.21875" style="1"/>
-    <col min="13057" max="13081" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13082" max="13312" width="9.21875" style="1"/>
-    <col min="13313" max="13337" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13338" max="13568" width="9.21875" style="1"/>
-    <col min="13569" max="13593" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13594" max="13824" width="9.21875" style="1"/>
-    <col min="13825" max="13849" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13850" max="14080" width="9.21875" style="1"/>
-    <col min="14081" max="14105" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14106" max="14336" width="9.21875" style="1"/>
-    <col min="14337" max="14361" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14362" max="14592" width="9.21875" style="1"/>
-    <col min="14593" max="14617" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14618" max="14848" width="9.21875" style="1"/>
-    <col min="14849" max="14873" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14874" max="15104" width="9.21875" style="1"/>
-    <col min="15105" max="15129" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15130" max="15360" width="9.21875" style="1"/>
-    <col min="15361" max="15385" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15386" max="15616" width="9.21875" style="1"/>
-    <col min="15617" max="15641" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15642" max="15872" width="9.21875" style="1"/>
-    <col min="15873" max="15897" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15898" max="16128" width="9.21875" style="1"/>
-    <col min="16129" max="16153" width="7.33203125" style="1" customWidth="1"/>
-    <col min="16154" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="2" width="8.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="7.3046875" style="1" customWidth="1"/>
+    <col min="26" max="256" width="9.23046875" style="1"/>
+    <col min="257" max="281" width="7.3046875" style="1" customWidth="1"/>
+    <col min="282" max="512" width="9.23046875" style="1"/>
+    <col min="513" max="537" width="7.3046875" style="1" customWidth="1"/>
+    <col min="538" max="768" width="9.23046875" style="1"/>
+    <col min="769" max="793" width="7.3046875" style="1" customWidth="1"/>
+    <col min="794" max="1024" width="9.23046875" style="1"/>
+    <col min="1025" max="1049" width="7.3046875" style="1" customWidth="1"/>
+    <col min="1050" max="1280" width="9.23046875" style="1"/>
+    <col min="1281" max="1305" width="7.3046875" style="1" customWidth="1"/>
+    <col min="1306" max="1536" width="9.23046875" style="1"/>
+    <col min="1537" max="1561" width="7.3046875" style="1" customWidth="1"/>
+    <col min="1562" max="1792" width="9.23046875" style="1"/>
+    <col min="1793" max="1817" width="7.3046875" style="1" customWidth="1"/>
+    <col min="1818" max="2048" width="9.23046875" style="1"/>
+    <col min="2049" max="2073" width="7.3046875" style="1" customWidth="1"/>
+    <col min="2074" max="2304" width="9.23046875" style="1"/>
+    <col min="2305" max="2329" width="7.3046875" style="1" customWidth="1"/>
+    <col min="2330" max="2560" width="9.23046875" style="1"/>
+    <col min="2561" max="2585" width="7.3046875" style="1" customWidth="1"/>
+    <col min="2586" max="2816" width="9.23046875" style="1"/>
+    <col min="2817" max="2841" width="7.3046875" style="1" customWidth="1"/>
+    <col min="2842" max="3072" width="9.23046875" style="1"/>
+    <col min="3073" max="3097" width="7.3046875" style="1" customWidth="1"/>
+    <col min="3098" max="3328" width="9.23046875" style="1"/>
+    <col min="3329" max="3353" width="7.3046875" style="1" customWidth="1"/>
+    <col min="3354" max="3584" width="9.23046875" style="1"/>
+    <col min="3585" max="3609" width="7.3046875" style="1" customWidth="1"/>
+    <col min="3610" max="3840" width="9.23046875" style="1"/>
+    <col min="3841" max="3865" width="7.3046875" style="1" customWidth="1"/>
+    <col min="3866" max="4096" width="9.23046875" style="1"/>
+    <col min="4097" max="4121" width="7.3046875" style="1" customWidth="1"/>
+    <col min="4122" max="4352" width="9.23046875" style="1"/>
+    <col min="4353" max="4377" width="7.3046875" style="1" customWidth="1"/>
+    <col min="4378" max="4608" width="9.23046875" style="1"/>
+    <col min="4609" max="4633" width="7.3046875" style="1" customWidth="1"/>
+    <col min="4634" max="4864" width="9.23046875" style="1"/>
+    <col min="4865" max="4889" width="7.3046875" style="1" customWidth="1"/>
+    <col min="4890" max="5120" width="9.23046875" style="1"/>
+    <col min="5121" max="5145" width="7.3046875" style="1" customWidth="1"/>
+    <col min="5146" max="5376" width="9.23046875" style="1"/>
+    <col min="5377" max="5401" width="7.3046875" style="1" customWidth="1"/>
+    <col min="5402" max="5632" width="9.23046875" style="1"/>
+    <col min="5633" max="5657" width="7.3046875" style="1" customWidth="1"/>
+    <col min="5658" max="5888" width="9.23046875" style="1"/>
+    <col min="5889" max="5913" width="7.3046875" style="1" customWidth="1"/>
+    <col min="5914" max="6144" width="9.23046875" style="1"/>
+    <col min="6145" max="6169" width="7.3046875" style="1" customWidth="1"/>
+    <col min="6170" max="6400" width="9.23046875" style="1"/>
+    <col min="6401" max="6425" width="7.3046875" style="1" customWidth="1"/>
+    <col min="6426" max="6656" width="9.23046875" style="1"/>
+    <col min="6657" max="6681" width="7.3046875" style="1" customWidth="1"/>
+    <col min="6682" max="6912" width="9.23046875" style="1"/>
+    <col min="6913" max="6937" width="7.3046875" style="1" customWidth="1"/>
+    <col min="6938" max="7168" width="9.23046875" style="1"/>
+    <col min="7169" max="7193" width="7.3046875" style="1" customWidth="1"/>
+    <col min="7194" max="7424" width="9.23046875" style="1"/>
+    <col min="7425" max="7449" width="7.3046875" style="1" customWidth="1"/>
+    <col min="7450" max="7680" width="9.23046875" style="1"/>
+    <col min="7681" max="7705" width="7.3046875" style="1" customWidth="1"/>
+    <col min="7706" max="7936" width="9.23046875" style="1"/>
+    <col min="7937" max="7961" width="7.3046875" style="1" customWidth="1"/>
+    <col min="7962" max="8192" width="9.23046875" style="1"/>
+    <col min="8193" max="8217" width="7.3046875" style="1" customWidth="1"/>
+    <col min="8218" max="8448" width="9.23046875" style="1"/>
+    <col min="8449" max="8473" width="7.3046875" style="1" customWidth="1"/>
+    <col min="8474" max="8704" width="9.23046875" style="1"/>
+    <col min="8705" max="8729" width="7.3046875" style="1" customWidth="1"/>
+    <col min="8730" max="8960" width="9.23046875" style="1"/>
+    <col min="8961" max="8985" width="7.3046875" style="1" customWidth="1"/>
+    <col min="8986" max="9216" width="9.23046875" style="1"/>
+    <col min="9217" max="9241" width="7.3046875" style="1" customWidth="1"/>
+    <col min="9242" max="9472" width="9.23046875" style="1"/>
+    <col min="9473" max="9497" width="7.3046875" style="1" customWidth="1"/>
+    <col min="9498" max="9728" width="9.23046875" style="1"/>
+    <col min="9729" max="9753" width="7.3046875" style="1" customWidth="1"/>
+    <col min="9754" max="9984" width="9.23046875" style="1"/>
+    <col min="9985" max="10009" width="7.3046875" style="1" customWidth="1"/>
+    <col min="10010" max="10240" width="9.23046875" style="1"/>
+    <col min="10241" max="10265" width="7.3046875" style="1" customWidth="1"/>
+    <col min="10266" max="10496" width="9.23046875" style="1"/>
+    <col min="10497" max="10521" width="7.3046875" style="1" customWidth="1"/>
+    <col min="10522" max="10752" width="9.23046875" style="1"/>
+    <col min="10753" max="10777" width="7.3046875" style="1" customWidth="1"/>
+    <col min="10778" max="11008" width="9.23046875" style="1"/>
+    <col min="11009" max="11033" width="7.3046875" style="1" customWidth="1"/>
+    <col min="11034" max="11264" width="9.23046875" style="1"/>
+    <col min="11265" max="11289" width="7.3046875" style="1" customWidth="1"/>
+    <col min="11290" max="11520" width="9.23046875" style="1"/>
+    <col min="11521" max="11545" width="7.3046875" style="1" customWidth="1"/>
+    <col min="11546" max="11776" width="9.23046875" style="1"/>
+    <col min="11777" max="11801" width="7.3046875" style="1" customWidth="1"/>
+    <col min="11802" max="12032" width="9.23046875" style="1"/>
+    <col min="12033" max="12057" width="7.3046875" style="1" customWidth="1"/>
+    <col min="12058" max="12288" width="9.23046875" style="1"/>
+    <col min="12289" max="12313" width="7.3046875" style="1" customWidth="1"/>
+    <col min="12314" max="12544" width="9.23046875" style="1"/>
+    <col min="12545" max="12569" width="7.3046875" style="1" customWidth="1"/>
+    <col min="12570" max="12800" width="9.23046875" style="1"/>
+    <col min="12801" max="12825" width="7.3046875" style="1" customWidth="1"/>
+    <col min="12826" max="13056" width="9.23046875" style="1"/>
+    <col min="13057" max="13081" width="7.3046875" style="1" customWidth="1"/>
+    <col min="13082" max="13312" width="9.23046875" style="1"/>
+    <col min="13313" max="13337" width="7.3046875" style="1" customWidth="1"/>
+    <col min="13338" max="13568" width="9.23046875" style="1"/>
+    <col min="13569" max="13593" width="7.3046875" style="1" customWidth="1"/>
+    <col min="13594" max="13824" width="9.23046875" style="1"/>
+    <col min="13825" max="13849" width="7.3046875" style="1" customWidth="1"/>
+    <col min="13850" max="14080" width="9.23046875" style="1"/>
+    <col min="14081" max="14105" width="7.3046875" style="1" customWidth="1"/>
+    <col min="14106" max="14336" width="9.23046875" style="1"/>
+    <col min="14337" max="14361" width="7.3046875" style="1" customWidth="1"/>
+    <col min="14362" max="14592" width="9.23046875" style="1"/>
+    <col min="14593" max="14617" width="7.3046875" style="1" customWidth="1"/>
+    <col min="14618" max="14848" width="9.23046875" style="1"/>
+    <col min="14849" max="14873" width="7.3046875" style="1" customWidth="1"/>
+    <col min="14874" max="15104" width="9.23046875" style="1"/>
+    <col min="15105" max="15129" width="7.3046875" style="1" customWidth="1"/>
+    <col min="15130" max="15360" width="9.23046875" style="1"/>
+    <col min="15361" max="15385" width="7.3046875" style="1" customWidth="1"/>
+    <col min="15386" max="15616" width="9.23046875" style="1"/>
+    <col min="15617" max="15641" width="7.3046875" style="1" customWidth="1"/>
+    <col min="15642" max="15872" width="9.23046875" style="1"/>
+    <col min="15873" max="15897" width="7.3046875" style="1" customWidth="1"/>
+    <col min="15898" max="16128" width="9.23046875" style="1"/>
+    <col min="16129" max="16153" width="7.3046875" style="1" customWidth="1"/>
+    <col min="16154" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +3923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2985,7 +3997,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3056,7 +4068,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +4142,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3204,7 +4216,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3278,7 +4290,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3352,7 +4364,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3426,7 +4438,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3500,7 +4512,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3574,7 +4586,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3648,7 +4660,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3722,7 +4734,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3796,7 +4808,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3870,7 +4882,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3944,7 +4956,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4018,7 +5030,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +5104,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -4166,7 +5178,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -4237,7 +5249,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -4308,7 +5320,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -4376,7 +5388,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -4450,7 +5462,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -4524,7 +5536,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -4598,7 +5610,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,7 +5684,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -4746,7 +5758,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -4817,7 +5829,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -4891,7 +5903,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -4965,7 +5977,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -5036,7 +6048,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -5107,7 +6119,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -5181,7 +6193,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -5255,7 +6267,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -5326,7 +6338,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -5397,7 +6409,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -5471,7 +6483,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -5545,7 +6557,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5619,7 +6631,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -5693,7 +6705,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -5767,7 +6779,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -5841,7 +6853,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -5915,7 +6927,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -5986,7 +6998,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -6057,7 +7069,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -6131,7 +7143,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -6205,7 +7217,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
@@ -6279,7 +7291,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
@@ -6350,7 +7362,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -6421,7 +7433,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -6492,7 +7504,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -6572,102 +7584,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536B55AF-236A-4ECC-9718-CC3AF22F8E66}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
